--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H2">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I2">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J2">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8293556666666667</v>
+        <v>0.03684766666666667</v>
       </c>
       <c r="N2">
-        <v>2.488067</v>
+        <v>0.110543</v>
       </c>
       <c r="O2">
-        <v>0.9684897047217467</v>
+        <v>0.02317724724507712</v>
       </c>
       <c r="P2">
-        <v>0.9787701502025543</v>
+        <v>0.02674751840868441</v>
       </c>
       <c r="Q2">
-        <v>0.3978286436093333</v>
+        <v>0.02301760737155556</v>
       </c>
       <c r="R2">
-        <v>3.580457792484</v>
+        <v>0.207158466344</v>
       </c>
       <c r="S2">
-        <v>0.003000527998455912</v>
+        <v>9.935316344773199E-05</v>
       </c>
       <c r="T2">
-        <v>0.003042065864733585</v>
+        <v>0.0001150007810247145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H3">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I3">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J3">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0269835</v>
+        <v>0.8293556666666667</v>
       </c>
       <c r="N3">
-        <v>0.05396699999999999</v>
+        <v>2.488067</v>
       </c>
       <c r="O3">
-        <v>0.03151029527825325</v>
+        <v>0.5216661753464017</v>
       </c>
       <c r="P3">
-        <v>0.02122984979744566</v>
+        <v>0.6020247133200672</v>
       </c>
       <c r="Q3">
-        <v>0.012943553214</v>
+        <v>0.5180730513928888</v>
       </c>
       <c r="R3">
-        <v>0.077661319284</v>
+        <v>4.662657462536</v>
       </c>
       <c r="S3">
-        <v>9.762367401641727E-05</v>
+        <v>0.002236209686003711</v>
       </c>
       <c r="T3">
-        <v>6.598341946662907E-05</v>
+        <v>0.002588401330177563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.35043633333333</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H4">
-        <v>67.05130899999999</v>
+        <v>1.874008</v>
       </c>
       <c r="I4">
-        <v>0.1443555376176879</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J4">
-        <v>0.1448167077646516</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8293556666666667</v>
+        <v>0.63663</v>
       </c>
       <c r="N4">
-        <v>2.488067</v>
+        <v>1.27326</v>
       </c>
       <c r="O4">
-        <v>0.9684897047217467</v>
+        <v>0.4004413915028571</v>
       </c>
       <c r="P4">
-        <v>0.9787701502025543</v>
+        <v>0.3080841418184916</v>
       </c>
       <c r="Q4">
-        <v>18.53646102552256</v>
+        <v>0.39768323768</v>
       </c>
       <c r="R4">
-        <v>166.828149229703</v>
+        <v>2.38609942608</v>
       </c>
       <c r="S4">
-        <v>0.1398068520023035</v>
+        <v>0.00171655928767257</v>
       </c>
       <c r="T4">
-        <v>0.1417422708106474</v>
+        <v>0.001324605759274924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.35043633333333</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H5">
-        <v>67.05130899999999</v>
+        <v>1.874008</v>
       </c>
       <c r="I5">
-        <v>0.1443555376176879</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J5">
-        <v>0.1448167077646516</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0269835</v>
+        <v>0.08698733333333335</v>
       </c>
       <c r="N5">
-        <v>0.05396699999999999</v>
+        <v>0.260962</v>
       </c>
       <c r="O5">
-        <v>0.03151029527825325</v>
+        <v>0.054715185905664</v>
       </c>
       <c r="P5">
-        <v>0.02122984979744566</v>
+        <v>0.06314362645275687</v>
       </c>
       <c r="Q5">
-        <v>0.6030929988004998</v>
+        <v>0.05433831952177778</v>
       </c>
       <c r="R5">
-        <v>3.618557992802999</v>
+        <v>0.489044875696</v>
       </c>
       <c r="S5">
-        <v>0.004548685615384339</v>
+        <v>0.0002345458350112358</v>
       </c>
       <c r="T5">
-        <v>0.003074436954004136</v>
+        <v>0.0002714856102853328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.46539633333334</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H6">
-        <v>190.396189</v>
+        <v>67.051309</v>
       </c>
       <c r="I6">
-        <v>0.409906154456342</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J6">
-        <v>0.4112156745801395</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8293556666666667</v>
+        <v>0.03684766666666667</v>
       </c>
       <c r="N6">
-        <v>2.488067</v>
+        <v>0.110543</v>
       </c>
       <c r="O6">
-        <v>0.9684897047217467</v>
+        <v>0.02317724724507712</v>
       </c>
       <c r="P6">
-        <v>0.9787701502025543</v>
+        <v>0.02674751840868441</v>
       </c>
       <c r="Q6">
-        <v>52.6353860862959</v>
+        <v>0.8235614278652222</v>
       </c>
       <c r="R6">
-        <v>473.7184747766631</v>
+        <v>7.412052850787001</v>
       </c>
       <c r="S6">
-        <v>0.3969898904930493</v>
+        <v>0.003554819223002988</v>
       </c>
       <c r="T6">
-        <v>0.4024856275744478</v>
+        <v>0.004114685158083354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,113 +850,113 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.46539633333334</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H7">
-        <v>190.396189</v>
+        <v>67.051309</v>
       </c>
       <c r="I7">
-        <v>0.409906154456342</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J7">
-        <v>0.4112156745801395</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0269835</v>
+        <v>0.8293556666666667</v>
       </c>
       <c r="N7">
-        <v>0.05396699999999999</v>
+        <v>2.488067</v>
       </c>
       <c r="O7">
-        <v>0.03151029527825325</v>
+        <v>0.5216661753464017</v>
       </c>
       <c r="P7">
-        <v>0.02122984979744566</v>
+        <v>0.6020247133200672</v>
       </c>
       <c r="Q7">
-        <v>1.7125185219605</v>
+        <v>18.53646102552256</v>
       </c>
       <c r="R7">
-        <v>10.275111131763</v>
+        <v>166.828149229703</v>
       </c>
       <c r="S7">
-        <v>0.01291626396329262</v>
+        <v>0.08001075056511381</v>
       </c>
       <c r="T7">
-        <v>0.008730047005691655</v>
+        <v>0.09261203655787317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.35043633333333</v>
+      </c>
+      <c r="H8">
+        <v>67.051309</v>
+      </c>
+      <c r="I8">
+        <v>0.1533753851531285</v>
+      </c>
+      <c r="J8">
+        <v>0.1538342770799774</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.479164</v>
-      </c>
-      <c r="H8">
-        <v>2.958328</v>
-      </c>
-      <c r="I8">
-        <v>0.00955352778174978</v>
-      </c>
-      <c r="J8">
-        <v>0.006389365514817709</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8293556666666667</v>
+        <v>0.63663</v>
       </c>
       <c r="N8">
-        <v>2.488067</v>
+        <v>1.27326</v>
       </c>
       <c r="O8">
-        <v>0.9684897047217467</v>
+        <v>0.4004413915028571</v>
       </c>
       <c r="P8">
-        <v>0.9787701502025543</v>
+        <v>0.3080841418184916</v>
       </c>
       <c r="Q8">
-        <v>1.226753045329334</v>
+        <v>14.22895828289</v>
       </c>
       <c r="R8">
-        <v>7.360518271976001</v>
+        <v>85.37374969734</v>
       </c>
       <c r="S8">
-        <v>0.009252493300397848</v>
+        <v>0.06141785265300542</v>
       </c>
       <c r="T8">
-        <v>0.006253720244637149</v>
+        <v>0.04739390123645288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.479164</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H9">
-        <v>2.958328</v>
+        <v>67.051309</v>
       </c>
       <c r="I9">
-        <v>0.00955352778174978</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J9">
-        <v>0.006389365514817709</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.0269835</v>
+        <v>0.08698733333333335</v>
       </c>
       <c r="N9">
-        <v>0.05396699999999999</v>
+        <v>0.260962</v>
       </c>
       <c r="O9">
-        <v>0.03151029527825325</v>
+        <v>0.054715185905664</v>
       </c>
       <c r="P9">
-        <v>0.02122984979744566</v>
+        <v>0.06314362645275687</v>
       </c>
       <c r="Q9">
-        <v>0.039913021794</v>
+        <v>1.944204855473112</v>
       </c>
       <c r="R9">
-        <v>0.159652087176</v>
+        <v>17.497843699258</v>
       </c>
       <c r="S9">
-        <v>0.0003010344813519314</v>
+        <v>0.008391962712006241</v>
       </c>
       <c r="T9">
-        <v>0.000135645270180559</v>
+        <v>0.00971365412756799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,108 +1036,728 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.05440800000001</v>
+        <v>51.64088533333334</v>
       </c>
       <c r="H10">
-        <v>201.163224</v>
+        <v>154.922656</v>
       </c>
       <c r="I10">
-        <v>0.4330866284717481</v>
+        <v>0.354375214851445</v>
       </c>
       <c r="J10">
-        <v>0.4344702028561911</v>
+        <v>0.3554354887996299</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8293556666666667</v>
+        <v>0.03684766666666667</v>
       </c>
       <c r="N10">
-        <v>2.488067</v>
+        <v>0.110543</v>
       </c>
       <c r="O10">
-        <v>0.9684897047217467</v>
+        <v>0.02317724724507712</v>
       </c>
       <c r="P10">
-        <v>0.9787701502025543</v>
+        <v>0.02674751840868441</v>
       </c>
       <c r="Q10">
-        <v>55.61195324977868</v>
+        <v>1.902846129134222</v>
       </c>
       <c r="R10">
-        <v>500.507579248008</v>
+        <v>17.125615162208</v>
       </c>
       <c r="S10">
-        <v>0.4194399409275401</v>
+        <v>0.008213441972139263</v>
       </c>
       <c r="T10">
-        <v>0.4252464657080884</v>
+        <v>0.009507017279767842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>51.64088533333334</v>
+      </c>
+      <c r="H11">
+        <v>154.922656</v>
+      </c>
+      <c r="I11">
+        <v>0.354375214851445</v>
+      </c>
+      <c r="J11">
+        <v>0.3554354887996299</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8293556666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.488067</v>
+      </c>
+      <c r="O11">
+        <v>0.5216661753464017</v>
+      </c>
+      <c r="P11">
+        <v>0.6020247133200672</v>
+      </c>
+      <c r="Q11">
+        <v>42.82866088288356</v>
+      </c>
+      <c r="R11">
+        <v>385.4579479459521</v>
+      </c>
+      <c r="S11">
+        <v>0.1848655629691127</v>
+      </c>
+      <c r="T11">
+        <v>0.2139809482483752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>51.64088533333334</v>
+      </c>
+      <c r="H12">
+        <v>154.922656</v>
+      </c>
+      <c r="I12">
+        <v>0.354375214851445</v>
+      </c>
+      <c r="J12">
+        <v>0.3554354887996299</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.63663</v>
+      </c>
+      <c r="N12">
+        <v>1.27326</v>
+      </c>
+      <c r="O12">
+        <v>0.4004413915028571</v>
+      </c>
+      <c r="P12">
+        <v>0.3080841418184916</v>
+      </c>
+      <c r="Q12">
+        <v>32.87613682976001</v>
+      </c>
+      <c r="R12">
+        <v>197.25682097856</v>
+      </c>
+      <c r="S12">
+        <v>0.1419065041492366</v>
+      </c>
+      <c r="T12">
+        <v>0.1095040375386701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>51.64088533333334</v>
+      </c>
+      <c r="H13">
+        <v>154.922656</v>
+      </c>
+      <c r="I13">
+        <v>0.354375214851445</v>
+      </c>
+      <c r="J13">
+        <v>0.3554354887996299</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08698733333333335</v>
+      </c>
+      <c r="N13">
+        <v>0.260962</v>
+      </c>
+      <c r="O13">
+        <v>0.054715185905664</v>
+      </c>
+      <c r="P13">
+        <v>0.06314362645275687</v>
+      </c>
+      <c r="Q13">
+        <v>4.492102906119112</v>
+      </c>
+      <c r="R13">
+        <v>40.42892615507201</v>
+      </c>
+      <c r="S13">
+        <v>0.01938970576095643</v>
+      </c>
+      <c r="T13">
+        <v>0.02244348573281688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>67.05440800000001</v>
-      </c>
-      <c r="H11">
-        <v>201.163224</v>
-      </c>
-      <c r="I11">
-        <v>0.4330866284717481</v>
-      </c>
-      <c r="J11">
-        <v>0.4344702028561911</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.0269835</v>
-      </c>
-      <c r="N11">
-        <v>0.05396699999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.03151029527825325</v>
-      </c>
-      <c r="P11">
-        <v>0.02122984979744566</v>
-      </c>
-      <c r="Q11">
-        <v>1.809362618268</v>
-      </c>
-      <c r="R11">
-        <v>10.856175709608</v>
-      </c>
-      <c r="S11">
-        <v>0.01364668754420794</v>
-      </c>
-      <c r="T11">
-        <v>0.009223737148102686</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.304094</v>
+      </c>
+      <c r="H14">
+        <v>2.608188</v>
+      </c>
+      <c r="I14">
+        <v>0.008949083433667964</v>
+      </c>
+      <c r="J14">
+        <v>0.005983905779806209</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03684766666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.110543</v>
+      </c>
+      <c r="O14">
+        <v>0.02317724724507712</v>
+      </c>
+      <c r="P14">
+        <v>0.02674751840868441</v>
+      </c>
+      <c r="Q14">
+        <v>0.04805282101400001</v>
+      </c>
+      <c r="R14">
+        <v>0.288316926084</v>
+      </c>
+      <c r="S14">
+        <v>0.0002074151193589461</v>
+      </c>
+      <c r="T14">
+        <v>0.0001600546300011996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.304094</v>
+      </c>
+      <c r="H15">
+        <v>2.608188</v>
+      </c>
+      <c r="I15">
+        <v>0.008949083433667964</v>
+      </c>
+      <c r="J15">
+        <v>0.005983905779806209</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8293556666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.488067</v>
+      </c>
+      <c r="O15">
+        <v>0.5216661753464017</v>
+      </c>
+      <c r="P15">
+        <v>0.6020247133200672</v>
+      </c>
+      <c r="Q15">
+        <v>1.081557748766</v>
+      </c>
+      <c r="R15">
+        <v>6.489346492596001</v>
+      </c>
+      <c r="S15">
+        <v>0.004668434127697411</v>
+      </c>
+      <c r="T15">
+        <v>0.003602459161622126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.304094</v>
+      </c>
+      <c r="H16">
+        <v>2.608188</v>
+      </c>
+      <c r="I16">
+        <v>0.008949083433667964</v>
+      </c>
+      <c r="J16">
+        <v>0.005983905779806209</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.63663</v>
+      </c>
+      <c r="N16">
+        <v>1.27326</v>
+      </c>
+      <c r="O16">
+        <v>0.4004413915028571</v>
+      </c>
+      <c r="P16">
+        <v>0.3080841418184916</v>
+      </c>
+      <c r="Q16">
+        <v>0.8302253632200001</v>
+      </c>
+      <c r="R16">
+        <v>3.32090145288</v>
+      </c>
+      <c r="S16">
+        <v>0.003583583422853166</v>
+      </c>
+      <c r="T16">
+        <v>0.001843546476894307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.304094</v>
+      </c>
+      <c r="H17">
+        <v>2.608188</v>
+      </c>
+      <c r="I17">
+        <v>0.008949083433667964</v>
+      </c>
+      <c r="J17">
+        <v>0.005983905779806209</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.08698733333333335</v>
+      </c>
+      <c r="N17">
+        <v>0.260962</v>
+      </c>
+      <c r="O17">
+        <v>0.054715185905664</v>
+      </c>
+      <c r="P17">
+        <v>0.06314362645275687</v>
+      </c>
+      <c r="Q17">
+        <v>0.113439659476</v>
+      </c>
+      <c r="R17">
+        <v>0.6806379568560001</v>
+      </c>
+      <c r="S17">
+        <v>0.0004896507637584406</v>
+      </c>
+      <c r="T17">
+        <v>0.000377845511288576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>69.80366533333334</v>
+      </c>
+      <c r="H18">
+        <v>209.410996</v>
+      </c>
+      <c r="I18">
+        <v>0.4790136485896233</v>
+      </c>
+      <c r="J18">
+        <v>0.480446834859824</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03684766666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.110543</v>
+      </c>
+      <c r="O18">
+        <v>0.02317724724507712</v>
+      </c>
+      <c r="P18">
+        <v>0.02674751840868441</v>
+      </c>
+      <c r="Q18">
+        <v>2.572102192314222</v>
+      </c>
+      <c r="R18">
+        <v>23.148919730828</v>
+      </c>
+      <c r="S18">
+        <v>0.01110221776712818</v>
+      </c>
+      <c r="T18">
+        <v>0.0128507605598073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>69.80366533333334</v>
+      </c>
+      <c r="H19">
+        <v>209.410996</v>
+      </c>
+      <c r="I19">
+        <v>0.4790136485896233</v>
+      </c>
+      <c r="J19">
+        <v>0.480446834859824</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8293556666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.488067</v>
+      </c>
+      <c r="O19">
+        <v>0.5216661753464017</v>
+      </c>
+      <c r="P19">
+        <v>0.6020247133200672</v>
+      </c>
+      <c r="Q19">
+        <v>57.89206539830356</v>
+      </c>
+      <c r="R19">
+        <v>521.028588584732</v>
+      </c>
+      <c r="S19">
+        <v>0.249885217998474</v>
+      </c>
+      <c r="T19">
+        <v>0.2892408680220193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>69.80366533333334</v>
+      </c>
+      <c r="H20">
+        <v>209.410996</v>
+      </c>
+      <c r="I20">
+        <v>0.4790136485896233</v>
+      </c>
+      <c r="J20">
+        <v>0.480446834859824</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.63663</v>
+      </c>
+      <c r="N20">
+        <v>1.27326</v>
+      </c>
+      <c r="O20">
+        <v>0.4004413915028571</v>
+      </c>
+      <c r="P20">
+        <v>0.3080841418184916</v>
+      </c>
+      <c r="Q20">
+        <v>44.43910746116001</v>
+      </c>
+      <c r="R20">
+        <v>266.63464476696</v>
+      </c>
+      <c r="S20">
+        <v>0.1918168919900894</v>
+      </c>
+      <c r="T20">
+        <v>0.1480180508071994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>69.80366533333334</v>
+      </c>
+      <c r="H21">
+        <v>209.410996</v>
+      </c>
+      <c r="I21">
+        <v>0.4790136485896233</v>
+      </c>
+      <c r="J21">
+        <v>0.480446834859824</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.08698733333333335</v>
+      </c>
+      <c r="N21">
+        <v>0.260962</v>
+      </c>
+      <c r="O21">
+        <v>0.054715185905664</v>
+      </c>
+      <c r="P21">
+        <v>0.06314362645275687</v>
+      </c>
+      <c r="Q21">
+        <v>6.072034704239113</v>
+      </c>
+      <c r="R21">
+        <v>54.64831233815201</v>
+      </c>
+      <c r="S21">
+        <v>0.02620932083393164</v>
+      </c>
+      <c r="T21">
+        <v>0.0303371554707981</v>
       </c>
     </row>
   </sheetData>
